--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T23:11:23+00:00</t>
+    <t>2024-07-08T16:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:31:04+00:00</t>
+    <t>2024-07-11T20:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T20:02:03+00:00</t>
+    <t>2024-07-15T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T14:16:39+00:00</t>
+    <t>2024-07-30T19:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -857,17 +857,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.4140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.4140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.8671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -876,21 +876,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.11328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="55.06640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.5390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="47.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -280,14 +280,14 @@
     <t>Name is a repeatable object that consists of sets of two fields.  All ResearchStudy records must have at least one Name object with Name.Type=”formal title”.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
     <t>SharedDataModelResearchStudy.name.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -354,17 +354,13 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
     <t>SharedDataModelResearchStudy.name.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>The study's name</t>
@@ -1738,13 +1734,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1812,10 +1808,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1838,13 +1834,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1871,11 +1867,11 @@
         <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>20</v>
@@ -1893,7 +1889,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -1910,10 +1906,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1936,13 +1932,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1993,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -2010,10 +2006,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2036,13 +2032,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2093,7 +2089,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -2110,10 +2106,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2136,13 +2132,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2193,7 +2189,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2210,10 +2206,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2239,10 +2235,10 @@
         <v>85</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2293,7 +2289,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
@@ -2310,10 +2306,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2410,10 +2406,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2512,10 +2508,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2616,10 +2612,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2642,13 +2638,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2699,7 +2695,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -2716,10 +2712,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2742,13 +2738,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2799,7 +2795,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -2816,10 +2812,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2842,13 +2838,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2899,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -2916,10 +2912,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2945,10 +2941,10 @@
         <v>85</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2999,7 +2995,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -3016,10 +3012,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3116,10 +3112,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3218,10 +3214,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3322,10 +3318,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3348,13 +3344,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3405,7 +3401,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -3422,10 +3418,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3448,13 +3444,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3505,7 +3501,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -3522,10 +3518,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3548,13 +3544,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3605,7 +3601,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -3622,10 +3618,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3648,13 +3644,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3705,7 +3701,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -3722,10 +3718,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3748,13 +3744,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3805,7 +3801,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -3822,10 +3818,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3848,13 +3844,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3905,7 +3901,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -3922,10 +3918,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -3948,13 +3944,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4005,7 +4001,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -4022,10 +4018,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4051,10 +4047,10 @@
         <v>85</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4105,7 +4101,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -4122,10 +4118,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4222,10 +4218,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4324,10 +4320,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4428,10 +4424,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4454,13 +4450,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4511,7 +4507,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -4528,10 +4524,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4554,13 +4550,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4587,11 +4583,11 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -4609,7 +4605,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -4626,10 +4622,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4652,13 +4648,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4709,7 +4705,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchStudy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchStudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
